--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T14:30:00+00:00</t>
+    <t>2025-06-03T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:17:23+00:00</t>
+    <t>2025-06-03T15:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T15:24:37+00:00</t>
+    <t>2025-06-04T08:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>R5 Profile for recording key process timing metrics (D2N, D2G).</t>
+    <t>Profile for recording key process timing metrics (D2N, D2G).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:16:37+00:00</t>
+    <t>2025-06-04T08:27:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:27:13+00:00</t>
+    <t>2025-06-04T08:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:35:18+00:00</t>
+    <t>2025-06-04T08:43:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:43:19+00:00</t>
+    <t>2025-06-04T08:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T08:56:07+00:00</t>
+    <t>2025-06-04T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-04T09:35:36+00:00</t>
+    <t>2025-08-28T12:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:22:25+00:00</t>
+    <t>2025-08-28T12:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T12:34:04+00:00</t>
+    <t>2025-08-28T14:22:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:22:33+00:00</t>
+    <t>2025-08-28T14:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-28T14:36:09+00:00</t>
+    <t>2025-08-29T08:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T08:36:57+00:00</t>
+    <t>2025-08-29T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:46:03+00:00</t>
+    <t>2025-09-03T11:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T11:52:57+00:00</t>
+    <t>2025-09-04T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T12:43:39+00:00</t>
+    <t>2025-09-05T10:27:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T10:27:45+00:00</t>
+    <t>2025-09-05T14:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T14:06:57+00:00</t>
+    <t>2025-09-05T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T16:38:52+00:00</t>
+    <t>2025-09-08T06:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T06:26:35+00:00</t>
+    <t>2025-09-08T07:31:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T07:31:14+00:00</t>
+    <t>2025-09-08T10:17:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T10:17:51+00:00</t>
+    <t>2025-09-08T16:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="543">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T16:35:28+00:00</t>
+    <t>2025-09-09T08:15:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -523,8 +523,8 @@
     <t>Observation.instantiates[x]</t>
   </si>
   <si>
-    <t>canonical(ObservationDefinition)
-Reference(ObservationDefinition)</t>
+    <t>canonical(ObservationDefinition|5.0.0)
+Reference(ObservationDefinition|5.0.0)</t>
   </si>
   <si>
     <t>Instantiates FHIR ObservationDefinition</t>
@@ -549,7 +549,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|5.0.0|DeviceRequest|5.0.0|ImmunizationRecommendation|5.0.0|MedicationRequest|5.0.0|NutritionOrder|5.0.0|ServiceRequest|5.0.0)
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
     <t>Observation.triggeredBy.observation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(Observation|5.0.0)
 </t>
   </si>
   <si>
@@ -781,7 +781,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|5.0.0</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -865,7 +865,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|5.0.0)
 </t>
   </si>
   <si>
@@ -888,7 +888,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|5.0.0)
 </t>
   </si>
   <si>
@@ -979,7 +979,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|5.0.0|PractitionerRole|5.0.0|Organization|5.0.0|CareTeam|5.0.0|Patient|5.0.0|RelatedPerson|5.0.0)
 </t>
   </si>
   <si>
@@ -1216,7 +1216,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1248,7 +1248,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|5.0.0</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1306,7 +1306,7 @@
     <t>SNOMED CT Body site concepts</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|5.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-8
@@ -1328,7 +1328,7 @@
     <t>Observation.bodyStructure</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(BodyStructure)
+    <t xml:space="preserve">Reference(BodyStructure|5.0.0)
 </t>
   </si>
   <si>
@@ -1359,7 +1359,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods|5.0.0</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1371,7 +1371,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|Group)
+    <t xml:space="preserve">Reference(Specimen|5.0.0|Group|5.0.0)
 </t>
   </si>
   <si>
@@ -1403,7 +1403,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|5.0.0|DeviceMetric|5.0.0)
 </t>
   </si>
   <si>
@@ -1465,7 +1465,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|5.0.0}
 </t>
   </si>
   <si>
@@ -1506,7 +1506,7 @@
     <t>Codes identifying the normal value of the observation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-referencerange-normalvalue|5.0.0</t>
   </si>
   <si>
     <t>value:IVL_PQ.normal</t>
@@ -1530,7 +1530,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|5.0.0</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1563,7 +1563,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|5.0.0</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1604,6 +1604,10 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Observation)
+</t>
+  </si>
+  <si>
     <t>Related resource that belongs to the Observation group</t>
   </si>
   <si>
@@ -1619,7 +1623,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|ImagingSelection|QuestionnaireResponse|Observation|MolecularSequence|GenomicStudy)
+    <t xml:space="preserve">Reference(DocumentReference|5.0.0|ImagingStudy|5.0.0|ImagingSelection|5.0.0|QuestionnaireResponse|5.0.0|Observation|5.0.0|MolecularSequence|5.0.0|GenomicStudy|5.0.0)
 </t>
   </si>
   <si>
@@ -1680,7 +1684,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|5.0.0</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1691,7 +1695,7 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence)</t>
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriodAttachmentReference(MolecularSequence|5.0.0)</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -2073,7 +2077,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="140.859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2088,7 +2092,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.41796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -8996,16 +9000,16 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>197</v>
+        <v>502</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9079,7 +9083,7 @@
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>200</v>
@@ -9090,10 +9094,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9116,16 +9120,16 @@
         <v>94</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9175,7 +9179,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9199,10 +9203,10 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>20</v>
@@ -9210,10 +9214,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9239,16 +9243,16 @@
         <v>178</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9297,7 +9301,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9321,10 +9325,10 @@
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>20</v>
@@ -9332,10 +9336,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9450,10 +9454,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9570,10 +9574,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9692,10 +9696,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9721,13 +9725,13 @@
         <v>234</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>250</v>
@@ -9758,10 +9762,10 @@
         <v>406</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9779,7 +9783,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>93</v>
@@ -9800,7 +9804,7 @@
         <v>254</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>256</v>
@@ -9814,10 +9818,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9840,16 +9844,16 @@
         <v>94</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>316</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>318</v>
@@ -9901,7 +9905,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9922,7 +9926,7 @@
         <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>321</v>
@@ -9936,10 +9940,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9965,13 +9969,13 @@
         <v>234</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>376</v>
@@ -10023,7 +10027,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10058,10 +10062,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10145,7 +10149,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10180,10 +10184,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10209,10 +10213,10 @@
         <v>82</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>450</v>
@@ -10267,7 +10271,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T08:15:52+00:00</t>
+    <t>2025-09-09T09:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T09:28:44+00:00</t>
+    <t>2025-09-12T08:57:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T08:57:32+00:00</t>
+    <t>2025-09-15T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T11:30:19+00:00</t>
+    <t>2025-09-15T14:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T14:05:10+00:00</t>
+    <t>2025-09-17T09:29:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T09:29:40+00:00</t>
+    <t>2025-09-17T10:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T10:41:45+00:00</t>
+    <t>2025-09-17T12:21:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1157,7 +1157,7 @@
     <t>Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
-    <t>http://unitsofmeasure.org</t>
+    <t>https://ucum.org/ucum</t>
   </si>
   <si>
     <t>Quantity.system</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T12:21:11+00:00</t>
+    <t>2025-09-17T16:26:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1133,7 +1133,7 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>minutes</t>
+    <t>minute</t>
   </si>
   <si>
     <t>Quantity.unit</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:26:28+00:00</t>
+    <t>2025-09-17T16:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T16:58:51+00:00</t>
+    <t>2025-09-22T08:26:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:26:26+00:00</t>
+    <t>2025-09-22T08:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:28:48+00:00</t>
+    <t>2025-09-22T08:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:30:29+00:00</t>
+    <t>2025-09-22T08:34:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T08:34:05+00:00</t>
+    <t>2025-09-22T09:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:31+00:00</t>
+    <t>2025-09-22T09:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T09:39:40+00:00</t>
+    <t>2025-09-22T11:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T11:46:58+00:00</t>
+    <t>2025-09-22T13:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T13:11:45+00:00</t>
+    <t>2025-09-22T14:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T14:03:07+00:00</t>
+    <t>2025-09-22T15:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T15:14:25+00:00</t>
+    <t>2025-09-22T16:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:06:01+00:00</t>
+    <t>2025-09-22T16:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T16:51:16+00:00</t>
+    <t>2025-09-22T17:06:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:06:55+00:00</t>
+    <t>2025-09-22T17:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:32:58+00:00</t>
+    <t>2025-09-22T17:48:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T17:48:18+00:00</t>
+    <t>2025-09-22T18:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T18:03:45+00:00</t>
+    <t>2025-09-23T08:18:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:18:09+00:00</t>
+    <t>2025-09-23T08:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:32:43+00:00</t>
+    <t>2025-09-23T08:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:41:48+00:00</t>
+    <t>2025-09-23T08:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:42:22+00:00</t>
+    <t>2025-09-23T08:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:51:27+00:00</t>
+    <t>2025-09-23T08:52:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T08:52:02+00:00</t>
+    <t>2025-09-23T10:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:06:45+00:00</t>
+    <t>2025-09-23T10:19:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:12+00:00</t>
+    <t>2025-09-23T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:19:52+00:00</t>
+    <t>2025-09-23T10:20:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:20:32+00:00</t>
+    <t>2025-09-23T10:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:26:15+00:00</t>
+    <t>2025-09-23T10:43:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T10:43:17+00:00</t>
+    <t>2025-09-23T11:03:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:03:07+00:00</t>
+    <t>2025-09-23T11:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T11:44:28+00:00</t>
+    <t>2025-09-23T12:00:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:00:42+00:00</t>
+    <t>2025-09-23T12:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:55:27+00:00</t>
+    <t>2025-09-23T13:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:35:37+00:00</t>
+    <t>2025-09-23T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:01:22+00:00</t>
+    <t>2025-09-23T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:15:20+00:00</t>
+    <t>2025-09-23T14:32:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:32:14+00:00</t>
+    <t>2025-09-23T16:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:14:11+00:00</t>
+    <t>2025-09-23T16:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T16:36:06+00:00</t>
+    <t>2025-09-23T17:01:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T17:01:11+00:00</t>
+    <t>2025-09-24T09:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:25:22+00:00</t>
+    <t>2025-09-24T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:35:41+00:00</t>
+    <t>2025-09-24T10:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T10:48:34+00:00</t>
+    <t>2025-09-24T11:09:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T11:09:16+00:00</t>
+    <t>2025-09-24T16:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:01:08+00:00</t>
+    <t>2025-09-24T16:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T16:38:52+00:00</t>
+    <t>2025-09-25T09:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:51:46+00:00</t>
+    <t>2025-09-25T09:59:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:12+00:00</t>
+    <t>2025-09-25T10:18:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:18:49+00:00</t>
+    <t>2025-09-25T10:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T10:34:09+00:00</t>
+    <t>2025-09-25T11:37:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T11:37:39+00:00</t>
+    <t>2025-09-25T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T13:52:06+00:00</t>
+    <t>2025-09-25T14:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T14:17:34+00:00</t>
+    <t>2025-09-25T15:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T15:24:58+00:00</t>
+    <t>2025-09-26T07:24:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:24:51+00:00</t>
+    <t>2025-09-26T07:49:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T07:49:53+00:00</t>
+    <t>2025-09-26T08:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:03:06+00:00</t>
+    <t>2025-09-29T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T10:55:47+00:00</t>
+    <t>2025-09-29T11:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:14:34+00:00</t>
+    <t>2025-09-29T11:58:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:58:57+00:00</t>
+    <t>2025-09-29T12:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T12:25:49+00:00</t>
+    <t>2025-09-29T16:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T16:14:38+00:00</t>
+    <t>2025-09-30T09:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T09:58:20+00:00</t>
+    <t>2025-10-01T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4510,7 +4510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>211</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>220</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>233</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>245</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>258</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>274</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>285</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>313</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>501</v>
       </c>
@@ -10306,12 +10306,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP68">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T11:45:35+00:00</t>
+    <t>2025-10-02T08:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:30:31+00:00</t>
+    <t>2025-10-02T08:31:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:31:49+00:00</t>
+    <t>2025-10-02T08:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:40:06+00:00</t>
+    <t>2025-10-02T08:55:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T08:55:17+00:00</t>
+    <t>2025-10-02T09:37:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:37:00+00:00</t>
+    <t>2025-10-02T10:13:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:13:04+00:00</t>
+    <t>2025-10-02T10:17:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:17:19+00:00</t>
+    <t>2025-10-02T10:35:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:35:00+00:00</t>
+    <t>2025-10-02T10:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:46:31+00:00</t>
+    <t>2025-10-02T10:50:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:50:34+00:00</t>
+    <t>2025-10-02T10:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T10:55:47+00:00</t>
+    <t>2025-10-02T11:00:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:00:11+00:00</t>
+    <t>2025-10-02T11:01:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:01:02+00:00</t>
+    <t>2025-10-02T11:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:30:52+00:00</t>
+    <t>2025-10-02T11:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:45:35+00:00</t>
+    <t>2025-10-02T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:46:56+00:00</t>
+    <t>2025-10-02T12:55:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:14+00:00</t>
+    <t>2025-10-02T12:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:55:42+00:00</t>
+    <t>2025-10-03T09:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T09:35:04+00:00</t>
+    <t>2025-10-03T10:22:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T10:22:41+00:00</t>
+    <t>2025-10-03T16:25:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:25:29+00:00</t>
+    <t>2025-10-03T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:32:49+00:00</t>
+    <t>2025-10-06T07:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T07:31:52+00:00</t>
+    <t>2025-10-07T10:46:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T10:46:08+00:00</t>
+    <t>2025-10-07T11:37:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:37:10+00:00</t>
+    <t>2025-10-07T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T12:40:55+00:00</t>
+    <t>2025-10-07T16:03:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:03:53+00:00</t>
+    <t>2025-10-09T10:11:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T10:11:37+00:00</t>
+    <t>2025-10-16T13:22:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:22:06+00:00</t>
+    <t>2025-10-16T13:23:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T13:23:59+00:00</t>
+    <t>2025-10-20T09:52:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T09:52:43+00:00</t>
+    <t>2025-10-20T12:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T12:40:55+00:00</t>
+    <t>2025-10-20T13:57:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T13:57:50+00:00</t>
+    <t>2025-10-20T14:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-20T14:31:52+00:00</t>
+    <t>2025-10-21T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:09:58+00:00</t>
+    <t>2025-10-23T09:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:52:59+00:00</t>
+    <t>2025-10-23T14:53:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T14:53:04+00:00</t>
+    <t>2025-10-23T15:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:20:30+00:00</t>
+    <t>2025-10-27T09:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T09:20:18+00:00</t>
+    <t>2025-10-27T10:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-timing-metric-observation-profile.xlsx
+++ b/StructureDefinition-timing-metric-observation-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:25:48+00:00</t>
+    <t>2025-10-30T10:04:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
